--- a/unit_strength.xlsx
+++ b/unit_strength.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t xml:space="preserve">unit</t>
   </si>
@@ -61,26 +61,75 @@
     <t xml:space="preserve">infantry</t>
   </si>
   <si>
-    <t xml:space="preserve">marine / tank</t>
+    <t xml:space="preserve">marine</t>
   </si>
   <si>
     <t xml:space="preserve">mech. inf.</t>
   </si>
   <si>
+    <t xml:space="preserve">tank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOW inf.</t>
+  </si>
+  <si>
     <t xml:space="preserve">modern armor</t>
   </si>
   <si>
-    <t xml:space="preserve">TOW inf.</t>
+    <t xml:space="preserve">attacker slow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swordsman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longbowman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medieval infantry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attacker fast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chariot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horseman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cavalry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mech infantry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOW infantry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -107,109 +156,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00A933"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -221,57 +167,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -279,23 +183,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,62 +208,36 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="negative" xfId="37" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="positive" xfId="38" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -382,14 +245,14 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB3B3B3"/>
@@ -400,8 +263,8 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF2A6099"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -417,17 +280,17 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -444,6 +307,7 @@
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -483,9 +347,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -495,19 +358,26 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -521,12 +391,15 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
@@ -536,28 +409,28 @@
         </c:ser>
         <c:hiLowLines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="12892679"/>
-        <c:axId val="40988696"/>
+        <c:axId val="96238385"/>
+        <c:axId val="42134180"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="12892679"/>
+        <c:axId val="96238385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
@@ -574,14 +447,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40988696"/>
+        <c:crossAx val="42134180"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40988696"/>
+        <c:axId val="42134180"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,19 +463,19 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="0">
               <a:solidFill>
                 <a:srgbClr val="b3b3b3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
@@ -618,13 +492,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12892679"/>
+        <c:crossAx val="96238385"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="b3b3b3"/>
           </a:solidFill>
@@ -636,7 +510,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -659,7 +533,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -671,6 +545,7 @@
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -710,9 +585,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -722,12 +596,19 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -748,13 +629,13 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,28 +644,28 @@
         </c:ser>
         <c:hiLowLines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="65234386"/>
-        <c:axId val="77690169"/>
+        <c:axId val="23688284"/>
+        <c:axId val="36222221"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65234386"/>
+        <c:axId val="23688284"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
@@ -801,14 +682,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77690169"/>
+        <c:crossAx val="36222221"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77690169"/>
+        <c:axId val="36222221"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,19 +698,19 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="0">
               <a:solidFill>
                 <a:srgbClr val="b3b3b3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:ln w="0">
             <a:solidFill>
               <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
@@ -845,13 +727,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65234386"/>
+        <c:crossAx val="23688284"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="b3b3b3"/>
           </a:solidFill>
@@ -863,7 +745,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -886,7 +768,492 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>attacker slow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$36:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>attacker fast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$43:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$43:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>defender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2a6099"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="2a6099"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="2a6099"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$50:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$50:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="86746103"/>
+        <c:axId val="37450694"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="86746103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37450694"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="37450694"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="86746103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -899,14 +1266,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>309960</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:colOff>56160</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -914,8 +1281,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="360" y="2194920"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="360" y="2377800"/>
+        <a:ext cx="5754960" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -934,9 +1301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>74160</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -944,8 +1311,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7080120" y="2194920"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="7327800" y="2194920"/>
+        <a:ext cx="5754960" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -955,147 +1322,924 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2880</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>78840</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8950680" y="6400800"/>
+        <a:ext cx="8197560" cy="4610880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="H46" activeCellId="0" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
+      <c r="AMI1" s="1"/>
+      <c r="AMJ1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="B6" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>9</v>
+      <c r="E6" s="1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C36&gt;=D36,C36+0.5*(D36-1)*(D36-1)/(C36-1),D36+0.5*(C36-1)*(C36-1)/(D36-1))*IF(AND(C36&gt;=D36,E36&gt;1),1.6,1),0)</f>
+        <v>20</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C36&gt;=D36,C36+0.5*(D36-1)*(D36-1)/(C36-1),D36+0.5*(C36-1)*(C36-1)/(D36-1))*IF(AND(C36&gt;=D36,E36&gt;1),1.6,1),0)</f>
+        <v>20</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C36&gt;=D36,(0.5*C36*(2+H$35*(C36-1)))*IF(E36&gt;1,1.5,1)+0.5*0.5*(D36-1)*(2+H$35*(D36-2)),0.5*0.5*(C36-1)*(2+H$35*(C36-2))+0.5*D36*(2+H$35*(D36-1))),0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C37&gt;=D37,C37+0.5*(D37-1)*(D37-1)/(C37-1),D37+0.5*(C37-1)*(C37-1)/(D37-1))*IF(AND(C37&gt;=D37,E37&gt;1),1.6,1),0)</f>
+        <v>35</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C37&gt;=D37,C37+0.5*(D37-1)*(D37-1)/(C37-1),D37+0.5*(C37-1)*(C37-1)/(D37-1))*IF(AND(C37&gt;=D37,E37&gt;1),1.6,1),0)</f>
+        <v>30</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C37&gt;=D37,(0.5*C37*(2+H$35*(C37-1)))*IF(E37&gt;1,1.5,1)+0.5*0.5*(D37-1)*(2+H$35*(D37-2)),0.5*0.5*(C37-1)*(2+H$35*(C37-2))+0.5*D37*(2+H$35*(D37-1))),0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C38&gt;=D38,C38+0.5*(D38-1)*(D38-1)/(C38-1),D38+0.5*(C38-1)*(C38-1)/(D38-1))*IF(AND(C38&gt;=D38,E38&gt;1),1.6,1),0)</f>
+        <v>45</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C38&gt;=D38,C38+0.5*(D38-1)*(D38-1)/(C38-1),D38+0.5*(C38-1)*(C38-1)/(D38-1))*IF(AND(C38&gt;=D38,E38&gt;1),1.6,1),0)</f>
+        <v>50</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C38&gt;=D38,(0.5*C38*(2+H$35*(C38-1)))*IF(E38&gt;1,1.5,1)+0.5*0.5*(D38-1)*(2+H$35*(D38-2)),0.5*0.5*(C38-1)*(2+H$35*(C38-2))+0.5*D38*(2+H$35*(D38-1))),0)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C39&gt;=D39,C39+0.5*(D39-1)*(D39-1)/(C39-1),D39+0.5*(C39-1)*(C39-1)/(D39-1))*IF(AND(C39&gt;=D39,E39&gt;1),1.6,1),0)</f>
+        <v>70</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C39&gt;=D39,C39+0.5*(D39-1)*(D39-1)/(C39-1),D39+0.5*(C39-1)*(C39-1)/(D39-1))*IF(AND(C39&gt;=D39,E39&gt;1),1.6,1),0)</f>
+        <v>70</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C39&gt;=D39,(0.5*C39*(2+H$35*(C39-1)))*IF(E39&gt;1,1.5,1)+0.5*0.5*(D39-1)*(2+H$35*(D39-2)),0.5*0.5*(C39-1)*(2+H$35*(C39-2))+0.5*D39*(2+H$35*(D39-1))),0)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C40&gt;=D40,C40+0.5*(D40-1)*(D40-1)/(C40-1),D40+0.5*(C40-1)*(C40-1)/(D40-1))*IF(AND(C40&gt;=D40,E40&gt;1),1.6,1),0)</f>
+        <v>90</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C40&gt;=D40,C40+0.5*(D40-1)*(D40-1)/(C40-1),D40+0.5*(C40-1)*(C40-1)/(D40-1))*IF(AND(C40&gt;=D40,E40&gt;1),1.6,1),0)</f>
+        <v>90</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C40&gt;=D40,(0.5*C40*(2+H$35*(C40-1)))*IF(E40&gt;1,1.5,1)+0.5*0.5*(D40-1)*(2+H$35*(D40-2)),0.5*0.5*(C40-1)*(2+H$35*(C40-2))+0.5*D40*(2+H$35*(D40-1))),0)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C41&gt;=D41,C41+0.5*(D41-1)*(D41-1)/(C41-1),D41+0.5*(C41-1)*(C41-1)/(D41-1))*IF(AND(C41&gt;=D41,E41&gt;1),1.6,1),0)</f>
+        <v>120</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C41&gt;=D41,C41+0.5*(D41-1)*(D41-1)/(C41-1),D41+0.5*(C41-1)*(C41-1)/(D41-1))*IF(AND(C41&gt;=D41,E41&gt;1),1.6,1),0)</f>
+        <v>120</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C41&gt;=D41,(0.5*C41*(2+H$35*(C41-1)))*IF(E41&gt;1,1.5,1)+0.5*0.5*(D41-1)*(2+H$35*(D41-2)),0.5*0.5*(C41-1)*(2+H$35*(C41-2))+0.5*D41*(2+H$35*(D41-1))),0)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C43&gt;=D43,C43+0.5*(D43-1)*(D43-1)/(C43-1),D43+0.5*(C43-1)*(C43-1)/(D43-1))*IF(AND(C43&gt;=D43,E43&gt;1),1.6,1),0)</f>
+        <v>30</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C43&gt;=D43,C43+0.5*(D43-1)*(D43-1)/(C43-1),D43+0.5*(C43-1)*(C43-1)/(D43-1))*IF(AND(C43&gt;=D43,E43&gt;1),1.6,1),0)</f>
+        <v>30</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C43&gt;=D43,(0.5*C43*(2+H$35*(C43-1)))*IF(E43&gt;1,1.5,1)+0.5*0.5*(D43-1)*(2+H$35*(D43-2)),0.5*0.5*(C43-1)*(2+H$35*(C43-2))+0.5*D43*(2+H$35*(D43-1))),0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C44&gt;=D44,C44+0.5*(D44-1)*(D44-1)/(C44-1),D44+0.5*(C44-1)*(C44-1)/(D44-1))*IF(AND(C44&gt;=D44,E44&gt;1),1.6,1),0)</f>
+        <v>50</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C44&gt;=D44,C44+0.5*(D44-1)*(D44-1)/(C44-1),D44+0.5*(C44-1)*(C44-1)/(D44-1))*IF(AND(C44&gt;=D44,E44&gt;1),1.6,1),0)</f>
+        <v>50</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C44&gt;=D44,(0.5*C44*(2+H$35*(C44-1)))*IF(E44&gt;1,1.5,1)+0.5*0.5*(D44-1)*(2+H$35*(D44-2)),0.5*0.5*(C44-1)*(2+H$35*(C44-2))+0.5*D44*(2+H$35*(D44-1))),0)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C45&gt;=D45,C45+0.5*(D45-1)*(D45-1)/(C45-1),D45+0.5*(C45-1)*(C45-1)/(D45-1))*IF(AND(C45&gt;=D45,E45&gt;1),1.6,1),0)</f>
+        <v>65</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C45&gt;=D45,C45+0.5*(D45-1)*(D45-1)/(C45-1),D45+0.5*(C45-1)*(C45-1)/(D45-1))*IF(AND(C45&gt;=D45,E45&gt;1),1.6,1),0)</f>
+        <v>70</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C45&gt;=D45,(0.5*C45*(2+H$35*(C45-1)))*IF(E45&gt;1,1.5,1)+0.5*0.5*(D45-1)*(2+H$35*(D45-2)),0.5*0.5*(C45-1)*(2+H$35*(C45-2))+0.5*D45*(2+H$35*(D45-1))),0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C46&gt;=D46,C46+0.5*(D46-1)*(D46-1)/(C46-1),D46+0.5*(C46-1)*(C46-1)/(D46-1))*IF(AND(C46&gt;=D46,E46&gt;1),1.6,1),0)</f>
+        <v>100</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C46&gt;=D46,C46+0.5*(D46-1)*(D46-1)/(C46-1),D46+0.5*(C46-1)*(C46-1)/(D46-1))*IF(AND(C46&gt;=D46,E46&gt;1),1.6,1),0)</f>
+        <v>100</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C46&gt;=D46,(0.5*C46*(2+H$35*(C46-1)))*IF(E46&gt;1,1.5,1)+0.5*0.5*(D46-1)*(2+H$35*(D46-2)),0.5*0.5*(C46-1)*(2+H$35*(C46-2))+0.5*D46*(2+H$35*(D46-1))),0)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="C47" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C47&gt;=D47,C47+0.5*(D47-1)*(D47-1)/(C47-1),D47+0.5*(C47-1)*(C47-1)/(D47-1))*IF(AND(C47&gt;=D47,E47&gt;1),1.6,1),0)</f>
+        <v>210</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C47&gt;=D47,C47+0.5*(D47-1)*(D47-1)/(C47-1),D47+0.5*(C47-1)*(C47-1)/(D47-1))*IF(AND(C47&gt;=D47,E47&gt;1),1.6,1),0)</f>
+        <v>210</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C47&gt;=D47,(0.5*C47*(2+H$35*(C47-1)))*IF(E47&gt;1,1.5,1)+0.5*0.5*(D47-1)*(2+H$35*(D47-2)),0.5*0.5*(C47-1)*(2+H$35*(C47-2))+0.5*D47*(2+H$35*(D47-1))),0)</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="D48" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C48&gt;=D48,C48+0.5*(D48-1)*(D48-1)/(C48-1),D48+0.5*(C48-1)*(C48-1)/(D48-1))*IF(AND(C48&gt;=D48,E48&gt;1),1.6,1),0)</f>
+        <v>300</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C48&gt;=D48,C48+0.5*(D48-1)*(D48-1)/(C48-1),D48+0.5*(C48-1)*(C48-1)/(D48-1))*IF(AND(C48&gt;=D48,E48&gt;1),1.6,1),0)</f>
+        <v>300</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C48&gt;=D48,(0.5*C48*(2+H$35*(C48-1)))*IF(E48&gt;1,1.5,1)+0.5*0.5*(D48-1)*(2+H$35*(D48-2)),0.5*0.5*(C48-1)*(2+H$35*(C48-2))+0.5*D48*(2+H$35*(D48-1))),0)</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C50&gt;=D50,C50+0.5*(D50-1)*(D50-1)/(C50-1),D50+0.5*(C50-1)*(C50-1)/(D50-1))*IF(AND(C50&gt;=D50,E50&gt;1),1.6,1),0)</f>
+        <v>20</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C50&gt;=D50,C50+0.5*(D50-1)*(D50-1)/(C50-1),D50+0.5*(C50-1)*(C50-1)/(D50-1))*IF(AND(C50&gt;=D50,E50&gt;1),1.6,1),0)</f>
+        <v>20</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C50&gt;=D50,(0.5*C50*(2+H$35*(C50-1)))*IF(E50&gt;1,1.5,1)+0.5*0.5*(D50-1)*(2+H$35*(D50-2)),0.5*0.5*(C50-1)*(2+H$35*(C50-2))+0.5*D50*(2+H$35*(D50-1))),0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C51&gt;=D51,C51+0.5*(D51-1)*(D51-1)/(C51-1),D51+0.5*(C51-1)*(C51-1)/(D51-1))*IF(AND(C51&gt;=D51,E51&gt;1),1.6,1),0)</f>
+        <v>30</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C51&gt;=D51,C51+0.5*(D51-1)*(D51-1)/(C51-1),D51+0.5*(C51-1)*(C51-1)/(D51-1))*IF(AND(C51&gt;=D51,E51&gt;1),1.6,1),0)</f>
+        <v>30</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C51&gt;=D51,(0.5*C51*(2+H$35*(C51-1)))*IF(E51&gt;1,1.5,1)+0.5*0.5*(D51-1)*(2+H$35*(D51-2)),0.5*0.5*(C51-1)*(2+H$35*(C51-2))+0.5*D51*(2+H$35*(D51-1))),0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C52&gt;=D52,C52+0.5*(D52-1)*(D52-1)/(C52-1),D52+0.5*(C52-1)*(C52-1)/(D52-1))*IF(AND(C52&gt;=D52,E52&gt;1),1.6,1),0)</f>
+        <v>40</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C52&gt;=D52,C52+0.5*(D52-1)*(D52-1)/(C52-1),D52+0.5*(C52-1)*(C52-1)/(D52-1))*IF(AND(C52&gt;=D52,E52&gt;1),1.6,1),0)</f>
+        <v>40</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C52&gt;=D52,(0.5*C52*(2+H$35*(C52-1)))*IF(E52&gt;1,1.5,1)+0.5*0.5*(D52-1)*(2+H$35*(D52-2)),0.5*0.5*(C52-1)*(2+H$35*(C52-2))+0.5*D52*(2+H$35*(D52-1))),0)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C53&gt;=D53,C53+0.5*(D53-1)*(D53-1)/(C53-1),D53+0.5*(C53-1)*(C53-1)/(D53-1))*IF(AND(C53&gt;=D53,E53&gt;1),1.6,1),0)</f>
+        <v>65</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C53&gt;=D53,C53+0.5*(D53-1)*(D53-1)/(C53-1),D53+0.5*(C53-1)*(C53-1)/(D53-1))*IF(AND(C53&gt;=D53,E53&gt;1),1.6,1),0)</f>
+        <v>60</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C53&gt;=D53,(0.5*C53*(2+H$35*(C53-1)))*IF(E53&gt;1,1.5,1)+0.5*0.5*(D53-1)*(2+H$35*(D53-2)),0.5*0.5*(C53-1)*(2+H$35*(C53-2))+0.5*D53*(2+H$35*(D53-1))),0)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C54&gt;=D54,C54+0.5*(D54-1)*(D54-1)/(C54-1),D54+0.5*(C54-1)*(C54-1)/(D54-1))*IF(AND(C54&gt;=D54,E54&gt;1),1.6,1),0)</f>
+        <v>85</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C54&gt;=D54,C54+0.5*(D54-1)*(D54-1)/(C54-1),D54+0.5*(C54-1)*(C54-1)/(D54-1))*IF(AND(C54&gt;=D54,E54&gt;1),1.6,1),0)</f>
+        <v>90</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C54&gt;=D54,(0.5*C54*(2+H$35*(C54-1)))*IF(E54&gt;1,1.5,1)+0.5*0.5*(D54-1)*(2+H$35*(D54-2)),0.5*0.5*(C54-1)*(2+H$35*(C54-2))+0.5*D54*(2+H$35*(D54-1))),0)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C55&gt;=D55,C55+0.5*(D55-1)*(D55-1)/(C55-1),D55+0.5*(C55-1)*(C55-1)/(D55-1))*IF(AND(C55&gt;=D55,E55&gt;1),1.6,1),0)</f>
+        <v>110</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C55&gt;=D55,C55+0.5*(D55-1)*(D55-1)/(C55-1),D55+0.5*(C55-1)*(C55-1)/(D55-1))*IF(AND(C55&gt;=D55,E55&gt;1),1.6,1),0)</f>
+        <v>110</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C55&gt;=D55,(0.5*C55*(2+H$35*(C55-1)))*IF(E55&gt;1,1.5,1)+0.5*0.5*(D55-1)*(2+H$35*(D55-2)),0.5*0.5*(C55-1)*(2+H$35*(C55-2))+0.5*D55*(2+H$35*(D55-1))),0)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <f aca="false">5*ROUND(2*IF(C56&gt;=D56,C56+0.5*(D56-1)*(D56-1)/(C56-1),D56+0.5*(C56-1)*(C56-1)/(D56-1))*IF(AND(C56&gt;=D56,E56&gt;1),1.6,1),0)</f>
+        <v>130</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C56&gt;=D56,C56+0.5*(D56-1)*(D56-1)/(C56-1),D56+0.5*(C56-1)*(C56-1)/(D56-1))*IF(AND(C56&gt;=D56,E56&gt;1),1.6,1),0)</f>
+        <v>130</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <f aca="false">10*ROUND(IF(C56&gt;=D56,(0.5*C56*(2+H$35*(C56-1)))*IF(E56&gt;1,1.5,1)+0.5*0.5*(D56-1)*(2+H$35*(D56-2)),0.5*0.5*(C56-1)*(2+H$35*(C56-2))+0.5*D56*(2+H$35*(D56-1))),0)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
